--- a/artfynd/A 34334-2025 artfynd.xlsx
+++ b/artfynd/A 34334-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>81412089</v>
       </c>
       <c r="B2" t="n">
-        <v>109370</v>
+        <v>109374</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 34334-2025 artfynd.xlsx
+++ b/artfynd/A 34334-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>81412089</v>
       </c>
       <c r="B2" t="n">
-        <v>109374</v>
+        <v>109381</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 34334-2025 artfynd.xlsx
+++ b/artfynd/A 34334-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>81412089</v>
       </c>
       <c r="B2" t="n">
-        <v>109381</v>
+        <v>109384</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 34334-2025 artfynd.xlsx
+++ b/artfynd/A 34334-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>81412089</v>
       </c>
       <c r="B2" t="n">
-        <v>109384</v>
+        <v>109385</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 34334-2025 artfynd.xlsx
+++ b/artfynd/A 34334-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>81412089</v>
       </c>
       <c r="B2" t="n">
-        <v>109385</v>
+        <v>109386</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 34334-2025 artfynd.xlsx
+++ b/artfynd/A 34334-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>81412089</v>
       </c>
       <c r="B2" t="n">
-        <v>109386</v>
+        <v>109389</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
